--- a/website_content_creation/authors/Joe_Schadenberg/Schadenberg_Author_form.xlsx
+++ b/website_content_creation/authors/Joe_Schadenberg/Schadenberg_Author_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aschaden\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Joe_Schadenberg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,9 +92,6 @@
     <t>Groups</t>
   </si>
   <si>
-    <t>WETlab Contributors from the GLFC</t>
-  </si>
-  <si>
     <t>Joe Schadenberg</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Forest health and succession</t>
+  </si>
+  <si>
+    <t>Watershed Ecology Team</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -865,12 +865,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Joe_Schadenberg/Schadenberg_Author_form.xlsx
+++ b/website_content_creation/authors/Joe_Schadenberg/Schadenberg_Author_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Joe_Schadenberg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Joe_Schadenberg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,6 @@
     <t>Watershed Analyst</t>
   </si>
   <si>
-    <t>joe.schadenberg@canada.ca</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/joe-schadenberg/</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Watershed Ecology Team</t>
+  </si>
+  <si>
+    <t>joe.schadenberg@NRCan-RNCan.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -865,12 +865,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Joe_Schadenberg/Schadenberg_Author_form.xlsx
+++ b/website_content_creation/authors/Joe_Schadenberg/Schadenberg_Author_form.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Joe_Schadenberg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Joe_Schadenberg/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_77117EF57D1AC2F378057F1F938A88E947E38759" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF929EE-AB9F-4849-B43A-0D11B6BFC97D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,16 +108,16 @@
     <t>Forest health and succession</t>
   </si>
   <si>
-    <t>Watershed Ecology Team</t>
-  </si>
-  <si>
     <t>joe.schadenberg@NRCan-RNCan.gc.ca</t>
+  </si>
+  <si>
+    <t>Past WETlab Members</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,31 +675,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -706,7 +707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -714,27 +715,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -742,39 +743,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -785,39 +786,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -825,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -833,53 +834,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -888,9 +889,9 @@
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B23" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
